--- a/January 2023 Analysis/New Analysis/sampleset/sample_space2/dummy_data.xlsx
+++ b/January 2023 Analysis/New Analysis/sampleset/sample_space2/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/January 2023 Analysis/New Analysis/sampleset/sample_space2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49418B0B-1712-FB46-954B-AADDF5653B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F8E0C9-489B-F844-AADA-C358F9E8F7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{83D6A64E-5C3C-BB4F-BC91-586927EEDB0C}"/>
   </bookViews>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A6EC9D-0AD4-FD4B-B5E1-BB38D90BCC47}">
   <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
